--- a/templates/community/RPTU/RPTU_FS_AlgaeGrowth.xlsx
+++ b/templates/community/RPTU/RPTU_FS_AlgaeGrowth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\RPTU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335ECECD-FDBC-4EF9-AA28-51557B277EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB49A1-E250-4B86-9198-88A294CCCC64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="580" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
   </bookViews>
   <sheets>
     <sheet name="AlgaeGrowth" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,75 +47,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DCE3FCB6-7109-437A-9FCE-23B2AE80DDF6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=2365b905-4cd0-4a0f-828e-d19d1dc2a4b2</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{7D59A3F4-8698-450F-93AA-BA8D1FEFA4DB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{06F16A27-3C26-43FC-919D-24864982C312}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{C908FB16-218B-4F11-8B69-E19FD5000AD9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{1125B2FB-A86F-47F8-A2F3-6549FAD29D12}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{562637E4-8C10-47B4-83E3-2B46FD68C322}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A8F274EA-6F50-4308-8A81-27436F26EAE5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{5FE28D28-4EB5-40C4-AAC6-EDE996B649FE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{2C7DD132-83C1-430B-B8A0-18AE741B8550}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -301,40 +297,22 @@
     <t>Term Accession Number (DPBO:0000011)</t>
   </si>
   <si>
-    <t>Factor [plasmid]</t>
-  </si>
-  <si>
     <t>Term Source REF (OBI:0000430)</t>
   </si>
   <si>
     <t>Term Accession Number (OBI:0000430)</t>
   </si>
   <si>
-    <t>Factor [study variable attribute]</t>
-  </si>
-  <si>
     <t>Term Source REF (MS:1001807)</t>
   </si>
   <si>
     <t>Term Accession Number (MS:1001807)</t>
   </si>
   <si>
-    <t>Factor [time series, time point X]</t>
-  </si>
-  <si>
     <t>Term Source REF (MS:1001815)</t>
   </si>
   <si>
     <t>Term Accession Number (MS:1001815)</t>
-  </si>
-  <si>
-    <t>Factor [biological replicate]</t>
-  </si>
-  <si>
-    <t>Term Source REF (EFO:0002091)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (EFO:0002091)</t>
   </si>
   <si>
     <t>Sample Name</t>
@@ -784,6 +762,24 @@
   </si>
   <si>
     <t>omaus@bio.uni-kl.de</t>
+  </si>
+  <si>
+    <t>Parameter [time series, time point X]</t>
+  </si>
+  <si>
+    <t>Parameter [study variable attribute]</t>
+  </si>
+  <si>
+    <t>Characteristic [plasmid]</t>
+  </si>
+  <si>
+    <t>Characteristic [biological replicate group]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000183)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000183)</t>
   </si>
 </sst>
 </file>
@@ -797,7 +793,7 @@
     <numFmt numFmtId="167" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00\ &quot;degree celsius&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,12 +824,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1086,8 +1076,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="68">
     <dxf>
@@ -1374,18 +1364,18 @@
     <tableColumn id="18" xr3:uid="{3F47D139-4347-42F7-816D-301B15B90D31}" name="Unit (#8)" dataDxfId="14"/>
     <tableColumn id="16" xr3:uid="{1CFDF4F2-93A3-43BB-9726-38D1F0CA31E7}" name="Term Source REF (DPBO:0000011)" dataDxfId="13"/>
     <tableColumn id="17" xr3:uid="{8D0199EE-61C8-4EF5-8AA7-A04867D9607A}" name="Term Accession Number (DPBO:0000011)" dataDxfId="12"/>
-    <tableColumn id="74" xr3:uid="{9EEB925A-CA93-4E50-88B7-29E15CD12927}" name="Factor [plasmid]" dataDxfId="11"/>
+    <tableColumn id="74" xr3:uid="{9EEB925A-CA93-4E50-88B7-29E15CD12927}" name="Characteristic [plasmid]" dataDxfId="11"/>
     <tableColumn id="75" xr3:uid="{8DAC819A-ADDB-4F3B-9EC4-CB434F0C8AB9}" name="Term Source REF (OBI:0000430)" dataDxfId="10"/>
     <tableColumn id="76" xr3:uid="{A58DA813-1C69-4A65-A4B0-0D8FE05C8234}" name="Term Accession Number (OBI:0000430)" dataDxfId="9"/>
-    <tableColumn id="87" xr3:uid="{BB3E690E-C285-420D-BCCC-6AB9DE0BABD6}" name="Factor [study variable attribute]" dataDxfId="8"/>
+    <tableColumn id="87" xr3:uid="{BB3E690E-C285-420D-BCCC-6AB9DE0BABD6}" name="Parameter [study variable attribute]" dataDxfId="8"/>
     <tableColumn id="88" xr3:uid="{40099C19-5FEB-4312-B581-5D0CD2ED9466}" name="Term Source REF (MS:1001807)" dataDxfId="7"/>
     <tableColumn id="89" xr3:uid="{BFA28A1B-131F-41BD-BE89-2890680A3E53}" name="Term Accession Number (MS:1001807)" dataDxfId="6"/>
-    <tableColumn id="90" xr3:uid="{3F31153A-179D-4660-84F3-49A91A61BF24}" name="Factor [time series, time point X]" dataDxfId="5"/>
+    <tableColumn id="90" xr3:uid="{3F31153A-179D-4660-84F3-49A91A61BF24}" name="Parameter [time series, time point X]" dataDxfId="5"/>
     <tableColumn id="91" xr3:uid="{2FBFA517-095C-4FD4-AD3B-F6DF9E471F10}" name="Term Source REF (MS:1001815)" dataDxfId="4"/>
     <tableColumn id="92" xr3:uid="{A8132AB4-F601-443C-8E6D-8C8EAD4386A0}" name="Term Accession Number (MS:1001815)" dataDxfId="3"/>
-    <tableColumn id="80" xr3:uid="{00593D37-623F-4480-8A2F-0FAFE023B075}" name="Factor [biological replicate]" dataDxfId="2"/>
-    <tableColumn id="81" xr3:uid="{96D976EA-EFD6-4C4A-BC5C-96170BEAC46D}" name="Term Source REF (EFO:0002091)" dataDxfId="1"/>
-    <tableColumn id="82" xr3:uid="{CC8F764B-A3FD-4C00-AE02-E88BD2BA414D}" name="Term Accession Number (EFO:0002091)" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{C4610118-E9E1-4B45-A31D-F5652B1436E9}" name="Characteristic [biological replicate group]" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{37D54672-F96C-4205-9D26-0E1353DBD60A}" name="Term Source REF (DPBO:1000183)" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{D223D8E4-B8AB-4B3D-B799-1132F7E527B9}" name="Term Accession Number (DPBO:1000183)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0993B9FA-C8E7-4F0E-9E7C-0FBA32769019}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1393,7 +1383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1727,7 +1717,7 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
-  <wetp:taskpane dockstate="right" visibility="0" width="656" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="462" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1755,85 +1745,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0D40F-2FA9-4C21-A087-3BB23680294D}">
-  <dimension ref="A1:BR24"/>
+  <dimension ref="A1:BT24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO2" sqref="BO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="50.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="50.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="42.140625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="50.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="43.42578125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="51.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="44.28515625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="52.42578125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="0" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="39.7109375" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="11" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="33" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="51.140625" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="11" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="46" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="33.140625" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="11" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="31.28515625" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="50.28515625" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="32.7109375" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="40.5703125" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="11" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="31.140625" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="35.7109375" hidden="1" customWidth="1"/>
     <col min="49" max="49" width="31" hidden="1" customWidth="1"/>
     <col min="50" max="50" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="33" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="50.28515625" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="146.7109375" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="37.85546875" hidden="1" customWidth="1"/>
     <col min="57" max="57" width="32" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="38" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="0" hidden="1" customWidth="1"/>
     <col min="60" max="60" width="48.5703125" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="23.42578125" hidden="1" customWidth="1"/>
     <col min="63" max="63" width="49.140625" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="41.5703125" hidden="1" customWidth="1"/>
     <col min="66" max="66" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="42.42578125" hidden="1" customWidth="1"/>
     <col min="69" max="69" width="0" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="0" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="39.85546875" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2010,3468 +2001,3468 @@
         <v>56</v>
       </c>
       <c r="BF1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BG1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BO1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T2" s="5">
         <v>4000000</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA2" s="6">
         <v>50</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE2" s="7">
         <v>24</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI2" s="8">
         <v>500</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM2" s="9">
         <v>24</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO2" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ2" s="8">
         <v>500</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS2" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU2" s="7">
         <v>1</v>
       </c>
       <c r="AV2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA2" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB2" s="9">
         <v>4</v>
       </c>
       <c r="BC2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BD2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BK2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR2" t="s">
         <v>95</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T3" s="5">
         <v>4010000</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA3" s="6">
         <v>50</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE3" s="7">
         <v>24</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI3" s="8">
         <v>500</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM3" s="9">
         <v>24</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ3" s="8">
         <v>1200</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU3" s="7">
         <v>1</v>
       </c>
       <c r="AV3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA3" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB3" s="9">
         <v>4</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BE3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK3" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="BL3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR3" t="s">
         <v>99</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T4" s="5">
         <v>4090000</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA4" s="6">
         <v>50</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE4" s="7">
         <v>24</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI4" s="8">
         <v>500</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM4" s="9">
         <v>24</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP4" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ4" s="8">
         <v>500</v>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS4" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT4" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU4" s="7">
         <v>1</v>
       </c>
       <c r="AV4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX4" s="4" t="s">
+      <c r="AZ4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA4" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB4" s="9">
         <v>4</v>
       </c>
       <c r="BC4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BD4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE4" s="4" t="s">
+      <c r="BJ4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK4" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="BL4" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="BM4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BN4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO4" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="BP4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BQ4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BR4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T5" s="5">
         <v>4000000</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA5" s="6">
         <v>50</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE5" s="7">
         <v>24</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI5" s="8">
         <v>500</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM5" s="9">
         <v>24</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ5" s="8">
         <v>1200</v>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU5" s="7">
         <v>1</v>
       </c>
       <c r="AV5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX5" s="4" t="s">
+      <c r="AZ5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA5" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB5" s="9">
         <v>4</v>
       </c>
       <c r="BC5" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BD5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BE5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ5" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BP5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR5" t="s">
         <v>104</v>
-      </c>
-      <c r="BL5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BP5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T6" s="5">
         <v>5000000</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA6" s="6">
         <v>50</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE6" s="7">
         <v>24</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI6" s="8">
         <v>500</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM6" s="9">
         <v>24</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ6" s="8">
         <v>500</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU6" s="7">
         <v>1</v>
       </c>
       <c r="AV6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX6" s="4" t="s">
+      <c r="AZ6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA6" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB6" s="9">
         <v>4</v>
       </c>
       <c r="BC6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BD6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE6" s="4" t="s">
+      <c r="BJ6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ6" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK6" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO6" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BQ6" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BR6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T7" s="5">
         <v>4050000</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA7" s="6">
         <v>50</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE7" s="7">
         <v>24</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI7" s="8">
         <v>500</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM7" s="9">
         <v>24</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ7" s="8">
         <v>1200</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU7" s="7">
         <v>1</v>
       </c>
       <c r="AV7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX7" s="4" t="s">
+      <c r="AZ7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA7" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB7" s="9">
         <v>4</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BE7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BG7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ7" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK7" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="BL7" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="BM7" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="BP7" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BQ7" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BR7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T8" s="5">
         <v>4000000</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA8" s="6">
         <v>50</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE8" s="7">
         <v>24</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI8" s="8">
         <v>500</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM8" s="9">
         <v>24</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ8" s="8">
         <v>500</v>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU8" s="7">
         <v>1</v>
       </c>
       <c r="AV8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX8" s="4" t="s">
+      <c r="AZ8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ8" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA8" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB8" s="9">
         <v>4</v>
       </c>
       <c r="BC8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BD8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE8" s="4" t="s">
+      <c r="BJ8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BG8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ8" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK8" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="BL8" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="BM8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BN8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO8" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="BP8" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BQ8" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BR8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L9" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T9" s="5">
         <v>9000000</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA9" s="6">
         <v>50</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE9" s="7">
         <v>24</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI9" s="8">
         <v>500</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM9" s="9">
         <v>24</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ9" s="8">
         <v>1200</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU9" s="7">
         <v>1</v>
       </c>
       <c r="AV9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX9" s="4" t="s">
+      <c r="AZ9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ9" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA9" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB9" s="9">
         <v>4</v>
       </c>
       <c r="BC9" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BD9" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BE9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BG9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ9" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK9" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="BL9" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="BM9" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BN9" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO9" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="BP9" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BQ9" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BR9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="I10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L10" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T10" s="5">
         <v>9000000</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA10" s="6">
         <v>50</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE10" s="7">
         <v>24</v>
       </c>
       <c r="AF10" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH10" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI10" s="8">
         <v>500</v>
       </c>
       <c r="AJ10" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK10" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL10" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM10" s="9">
         <v>24</v>
       </c>
       <c r="AN10" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP10" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ10" s="8">
         <v>500</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS10" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU10" s="7">
         <v>2</v>
       </c>
       <c r="AV10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX10" s="7" t="s">
+      <c r="AZ10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA10" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB10" s="9">
         <v>4</v>
       </c>
       <c r="BC10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BD10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE10" s="4" t="s">
+      <c r="BJ10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ10" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK10" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="BL10" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="BM10" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BN10" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO10" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="BP10" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BQ10" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BR10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L11" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T11" s="5">
         <v>9000000</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA11" s="6">
         <v>50</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE11" s="7">
         <v>24</v>
       </c>
       <c r="AF11" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH11" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH11" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI11" s="8">
         <v>500</v>
       </c>
       <c r="AJ11" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM11" s="9">
         <v>24</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP11" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ11" s="8">
         <v>1200</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS11" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU11" s="7">
         <v>2</v>
       </c>
       <c r="AV11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX11" s="4" t="s">
+      <c r="AZ11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ11" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA11" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB11" s="9">
         <v>4</v>
       </c>
       <c r="BC11" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BD11" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BE11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ11" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK11" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="BL11" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="BM11" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BN11" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO11" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="BP11" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BQ11" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BR11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L12" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T12" s="5">
         <v>9000000</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA12" s="6">
         <v>50</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE12" s="7">
         <v>24</v>
       </c>
       <c r="AF12" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH12" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH12" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI12" s="8">
         <v>500</v>
       </c>
       <c r="AJ12" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL12" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM12" s="9">
         <v>24</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP12" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ12" s="8">
         <v>500</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS12" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU12" s="7">
         <v>2</v>
       </c>
       <c r="AV12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX12" s="4" t="s">
+      <c r="AZ12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ12" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA12" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB12" s="9">
         <v>4</v>
       </c>
       <c r="BC12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BD12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE12" s="4" t="s">
+      <c r="BJ12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ12" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK12" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="BL12" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="BM12" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BN12" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO12" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="BP12" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BQ12" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BR12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L13" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T13" s="5">
         <v>9000000</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA13" s="6">
         <v>50</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE13" s="7">
         <v>24</v>
       </c>
       <c r="AF13" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH13" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI13" s="8">
         <v>500</v>
       </c>
       <c r="AJ13" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM13" s="9">
         <v>24</v>
       </c>
       <c r="AN13" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ13" s="8">
         <v>1200</v>
       </c>
       <c r="AR13" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS13" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU13" s="7">
         <v>2</v>
       </c>
       <c r="AV13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX13" s="4" t="s">
+      <c r="AZ13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ13" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA13" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB13" s="9">
         <v>4</v>
       </c>
       <c r="BC13" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BD13" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BE13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ13" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK13" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="BL13" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="BM13" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BN13" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO13" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="BP13" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BQ13" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BR13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L14" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T14" s="5">
         <v>9000000</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA14" s="6">
         <v>50</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE14" s="7">
         <v>24</v>
       </c>
       <c r="AF14" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH14" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH14" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI14" s="8">
         <v>500</v>
       </c>
       <c r="AJ14" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM14" s="9">
         <v>24</v>
       </c>
       <c r="AN14" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP14" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ14" s="8">
         <v>500</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS14" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU14" s="7">
         <v>2</v>
       </c>
       <c r="AV14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX14" s="4" t="s">
+      <c r="AZ14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ14" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA14" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB14" s="9">
         <v>4</v>
       </c>
       <c r="BC14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BD14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE14" s="4" t="s">
+      <c r="BJ14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BG14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ14" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK14" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="BL14" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="BM14" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BN14" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO14" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="BP14" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BQ14" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BR14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L15" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T15" s="5">
         <v>9000000</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA15" s="6">
         <v>50</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE15" s="7">
         <v>24</v>
       </c>
       <c r="AF15" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH15" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI15" s="8">
         <v>500</v>
       </c>
       <c r="AJ15" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM15" s="9">
         <v>24</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP15" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ15" s="8">
         <v>1200</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS15" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU15" s="7">
         <v>2</v>
       </c>
       <c r="AV15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX15" s="4" t="s">
+      <c r="AZ15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ15" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA15" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB15" s="9">
         <v>4</v>
       </c>
       <c r="BC15" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BD15" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BE15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BG15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ15" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK15" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="BL15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR15" t="s">
         <v>124</v>
-      </c>
-      <c r="BM15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T16" s="5">
         <v>9000000</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA16" s="6">
         <v>50</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE16" s="7">
         <v>24</v>
       </c>
       <c r="AF16" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH16" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI16" s="8">
         <v>500</v>
       </c>
       <c r="AJ16" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK16" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM16" s="9">
         <v>24</v>
       </c>
       <c r="AN16" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO16" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP16" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ16" s="8">
         <v>500</v>
       </c>
       <c r="AR16" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS16" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU16" s="7">
         <v>2</v>
       </c>
       <c r="AV16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX16" s="4" t="s">
+      <c r="AZ16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ16" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA16" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB16" s="9">
         <v>4</v>
       </c>
       <c r="BC16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BD16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE16" s="4" t="s">
+      <c r="BJ16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BG16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ16" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK16" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="BL16" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="BM16" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BN16" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO16" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="BP16" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BQ16" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BR16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L17" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T17" s="5">
         <v>9000000</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA17" s="6">
         <v>50</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE17" s="7">
         <v>24</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AG17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH17" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="AH17" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AI17" s="8">
         <v>500</v>
       </c>
       <c r="AJ17" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK17" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AL17" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM17" s="9">
         <v>24</v>
       </c>
       <c r="AN17" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AP17" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AQ17" s="8">
         <v>1200</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AS17" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AT17" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AU17" s="7">
         <v>2</v>
       </c>
       <c r="AV17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AW17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX17" s="4" t="s">
+      <c r="AZ17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AY17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ17" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="BA17" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BB17" s="9">
         <v>4</v>
       </c>
       <c r="BC17" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BD17" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BE17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BF17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BG17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ17" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="BK17" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="BL17" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="BM17" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BN17" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO17" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="BP17" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BQ17" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BR17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="4"/>
       <c r="O20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="U20" s="11"/>
       <c r="V20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
@@ -5501,21 +5492,21 @@
       <c r="AW20" s="11"/>
       <c r="AX20" s="11"/>
       <c r="AY20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AZ20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="BA20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="BB20" s="16"/>
       <c r="BC20" s="11"/>
       <c r="BD20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="BE20" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="BF20" s="11"/>
       <c r="BG20" s="11"/>
@@ -5533,194 +5524,194 @@
     </row>
     <row r="21" spans="1:70" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
       <c r="T21" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="V21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="W21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="X21" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA21" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB21" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF21" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ21" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN21" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="U21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="V21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="W21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="X21" s="21" t="s">
+      <c r="AO21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ21" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="Y21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA21" s="21" t="s">
+      <c r="AR21" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="AB21" s="21" t="s">
+      <c r="AS21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU21" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="AC21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF21" s="21" t="s">
+      <c r="AV21" s="21" t="s">
         <v>145</v>
-      </c>
-      <c r="AG21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ21" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN21" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ21" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR21" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT21" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU21" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV21" s="21" t="s">
-        <v>151</v>
       </c>
       <c r="AW21" s="21"/>
       <c r="AX21" s="21"/>
       <c r="AY21" s="21" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AZ21" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="BA21" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="BB21" s="21" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="BC21" s="21" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="BD21" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="BE21" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="BF21" s="22" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="BG21" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="BH21" s="22" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="BI21" s="22" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="BJ21" s="22"/>
       <c r="BK21" s="22"/>
       <c r="BL21" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="BM21" s="22"/>
       <c r="BN21" s="22"/>
       <c r="BO21" s="22" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="BR21" s="18"/>
     </row>
     <row r="22" spans="1:70" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -5744,7 +5735,7 @@
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
       <c r="X22" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
@@ -5777,16 +5768,16 @@
       <c r="BA22" s="21"/>
       <c r="BB22" s="21"/>
       <c r="BC22" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="BD22" s="21"/>
       <c r="BE22" s="21"/>
       <c r="BF22" s="26" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="BG22" s="22"/>
       <c r="BH22" s="26" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="BI22" s="22"/>
       <c r="BJ22" s="22"/>
@@ -5796,21 +5787,21 @@
       <c r="BN22" s="22"/>
       <c r="BO22" s="27"/>
       <c r="BR22" s="24" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="O24" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="R24" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5826,11 +5817,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7522EC0B-4508-414D-8D78-D44C69537208}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -5838,229 +5829,229 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B7" s="34"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B11" s="34"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B15" s="34"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" t="s">
         <v>209</v>
-      </c>
-      <c r="C16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" t="s">
         <v>210</v>
-      </c>
-      <c r="C17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B18" s="33"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>211</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B20" s="33"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B21" s="33"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B22" s="33"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B23" s="33"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B24" s="33"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B25" s="33"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B26" s="33"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B27" s="36"/>
     </row>

--- a/templates/community/RPTU/RPTU_FS_AlgaeGrowth.xlsx
+++ b/templates/community/RPTU/RPTU_FS_AlgaeGrowth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\community\RPTU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB49A1-E250-4B86-9198-88A294CCCC64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701A5D37-7796-488A-84BD-9C0D8CF4E3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
   </bookViews>
   <sheets>
     <sheet name="AlgaeGrowth" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="215">
   <si>
     <t>Source Name</t>
   </si>
@@ -705,15 +705,6 @@
   </si>
   <si>
     <t>annotationTableSweetSkunk39</t>
-  </si>
-  <si>
-    <t>PRIDE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
-  </si>
-  <si>
-    <t>DPBO</t>
   </si>
   <si>
     <t>Algae</t>
@@ -1383,9 +1374,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1423,7 +1414,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1529,7 +1520,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1671,7 +1662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1747,88 +1738,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0D40F-2FA9-4C21-A087-3BB23680294D}">
   <dimension ref="A1:BT24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="BF1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BO2" sqref="BO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="50.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="50.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="50.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="50.33203125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="50.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="51.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="50.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="51.5546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.109375" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="28" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="44.28515625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="52.42578125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="44.33203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="52.44140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="37.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="0" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="39.6640625" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="11" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="33" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="51.140625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="51.109375" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="11" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="32.6640625" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="46" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="33.140625" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="33.109375" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="11" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="31.28515625" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="31.33203125" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="26" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="50.28515625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="40.5703125" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="50.33203125" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="40.5546875" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="11" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="31.140625" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="35.7109375" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="31.109375" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="35.6640625" hidden="1" customWidth="1"/>
     <col min="49" max="49" width="31" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="33" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="50.28515625" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="146.7109375" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="50.33203125" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="146.6640625" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="37.88671875" hidden="1" customWidth="1"/>
     <col min="57" max="57" width="32" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="0" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="48.5703125" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="23.42578125" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="49.140625" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="41.5703125" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="42.42578125" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="48.5546875" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.44140625" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="49.109375" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="41.5546875" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="42.44140625" hidden="1" customWidth="1"/>
     <col min="69" max="69" width="0" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="39.85546875" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="39.88671875" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +1992,7 @@
         <v>56</v>
       </c>
       <c r="BF1" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="BG1" s="3" t="s">
         <v>57</v>
@@ -2010,7 +2001,7 @@
         <v>58</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="BJ1" s="3" t="s">
         <v>59</v>
@@ -2019,7 +2010,7 @@
         <v>60</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="BM1" s="3" t="s">
         <v>61</v>
@@ -2028,19 +2019,19 @@
         <v>62</v>
       </c>
       <c r="BO1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BP1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BQ1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2250,7 +2241,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -2460,7 +2451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -2670,7 +2661,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2880,7 +2871,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -3092,7 +3083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -3304,7 +3295,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -3516,7 +3507,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -3728,7 +3719,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -3938,7 +3929,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -4148,7 +4139,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -4358,7 +4349,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -4568,7 +4559,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -4780,7 +4771,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -4992,7 +4983,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -5204,7 +5195,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -5416,7 +5407,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:70" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>127</v>
       </c>
@@ -5522,7 +5513,7 @@
       <c r="BQ20" s="11"/>
       <c r="BR20" s="17"/>
     </row>
-    <row r="21" spans="1:70" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:70" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>128</v>
       </c>
@@ -5706,7 +5697,7 @@
       </c>
       <c r="BR21" s="18"/>
     </row>
-    <row r="22" spans="1:70" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:70" s="23" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>154</v>
       </c>
@@ -5790,7 +5781,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.3">
       <c r="O24" s="21" t="s">
         <v>130</v>
       </c>
@@ -5817,17 +5808,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7522EC0B-4508-414D-8D78-D44C69537208}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>160</v>
       </c>
@@ -5835,7 +5826,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>161</v>
       </c>
@@ -5843,7 +5834,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>162</v>
       </c>
@@ -5851,7 +5842,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>163</v>
       </c>
@@ -5859,7 +5850,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>164</v>
       </c>
@@ -5867,7 +5858,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>165</v>
       </c>
@@ -5875,71 +5866,65 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>166</v>
       </c>
       <c r="B7" s="34"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>193</v>
-      </c>
+      <c r="B8" s="35"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>194</v>
-      </c>
+      <c r="B9" s="33"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>195</v>
-      </c>
+      <c r="B10" s="33"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>170</v>
       </c>
       <c r="B11" s="34"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>171</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" t="s">
         <v>198</v>
       </c>
-      <c r="D12" t="s">
-        <v>201</v>
-      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>172</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" t="s">
         <v>199</v>
       </c>
-      <c r="D13" t="s">
-        <v>202</v>
-      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>173</v>
       </c>
@@ -5947,109 +5932,109 @@
         <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>174</v>
       </c>
       <c r="B15" s="34"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
         <v>203</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>206</v>
       </c>
-      <c r="D16" t="s">
-        <v>209</v>
-      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>176</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" t="s">
         <v>204</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>207</v>
       </c>
-      <c r="D17" t="s">
-        <v>210</v>
-      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>177</v>
       </c>
       <c r="B18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>178</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="D19" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>211</v>
-      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>179</v>
       </c>
       <c r="B20" s="33"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>180</v>
       </c>
       <c r="B21" s="33"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>181</v>
       </c>
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>182</v>
       </c>
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>183</v>
       </c>
       <c r="B24" s="33"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>184</v>
       </c>
       <c r="B25" s="33"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>185</v>
       </c>
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>186</v>
       </c>

--- a/templates/community/RPTU/RPTU_FS_AlgaeGrowth.xlsx
+++ b/templates/community/RPTU/RPTU_FS_AlgaeGrowth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701A5D37-7796-488A-84BD-9C0D8CF4E3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555BA522-FAA4-4B06-A3BD-82C767C5F649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
+    <workbookView xWindow="25032" yWindow="1092" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
   </bookViews>
   <sheets>
     <sheet name="AlgaeGrowth" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="214">
   <si>
     <t>Source Name</t>
   </si>
@@ -713,15 +713,6 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C86587</t>
   </si>
   <si>
-    <t>growth protocol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0003789</t>
-  </si>
-  <si>
-    <t>EFO</t>
-  </si>
-  <si>
     <t>Proteomics</t>
   </si>
   <si>
@@ -771,6 +762,12 @@
   </si>
   <si>
     <t>Term Accession Number (DPBO:1000183)</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>GO:0040007</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +1989,7 @@
         <v>56</v>
       </c>
       <c r="BF1" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="BG1" s="3" t="s">
         <v>57</v>
@@ -2001,7 +1998,7 @@
         <v>58</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="BJ1" s="3" t="s">
         <v>59</v>
@@ -2010,7 +2007,7 @@
         <v>60</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="BM1" s="3" t="s">
         <v>61</v>
@@ -2019,13 +2016,13 @@
         <v>62</v>
       </c>
       <c r="BO1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="BP1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="BQ1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>63</v>
@@ -5809,7 +5806,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5904,10 +5901,10 @@
         <v>193</v>
       </c>
       <c r="C12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" t="s">
         <v>195</v>
-      </c>
-      <c r="D12" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -5918,10 +5915,10 @@
         <v>194</v>
       </c>
       <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" t="s">
         <v>196</v>
-      </c>
-      <c r="D13" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -5930,9 +5927,6 @@
       </c>
       <c r="B14" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>87</v>
@@ -5949,13 +5943,13 @@
         <v>175</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" t="s">
         <v>200</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>203</v>
-      </c>
-      <c r="D16" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -5963,13 +5957,13 @@
         <v>176</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
         <v>201</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>204</v>
-      </c>
-      <c r="D17" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -5983,13 +5977,13 @@
         <v>178</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="D19" s="37" t="s">
         <v>205</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">

--- a/templates/community/RPTU/RPTU_FS_AlgaeGrowth.xlsx
+++ b/templates/community/RPTU/RPTU_FS_AlgaeGrowth.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555BA522-FAA4-4B06-A3BD-82C767C5F649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADCD5DD-A38A-4E66-88D2-AFB88373D0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25032" yWindow="1092" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
   </bookViews>
   <sheets>
     <sheet name="AlgaeGrowth" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="3" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
